--- a/media/excel/小区监测统计表.xlsx
+++ b/media/excel/小区监测统计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PythonProjects\Sewage\media\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6404709E-0D80-45DF-9EA9-51E3FE0F990E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65268DDA-E0D7-4FBE-94FA-48DD6FACB8C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="水质" sheetId="4" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>序日</t>
   </si>
   <si>
-    <t>样品编日</t>
-  </si>
-  <si>
     <t>权属类型</t>
   </si>
   <si>
@@ -140,6 +137,10 @@
     <t>物探点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>样品编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +152,7 @@
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -252,6 +253,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -285,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -371,17 +378,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -457,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,7 +535,7 @@
     <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,79 +556,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,73 +577,94 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F10"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1102,22 +1059,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
-        <v>33</v>
+      <c r="A1" s="35" t="s">
+        <v>32</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
       <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1132,92 +1089,92 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="41" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="53"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="37"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7"/>
       <c r="K5" s="33"/>
@@ -1227,14 +1184,14 @@
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
       <c r="K6" s="33"/>
@@ -1244,14 +1201,14 @@
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="39"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="8"/>
       <c r="J7" s="7"/>
       <c r="K7" s="33"/>
@@ -1261,14 +1218,14 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="37"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
@@ -1278,14 +1235,14 @@
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="38"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="8"/>
       <c r="J9" s="7"/>
       <c r="K9" s="6"/>
@@ -1295,14 +1252,14 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="39"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="8"/>
       <c r="J10" s="7"/>
       <c r="K10" s="6"/>
@@ -1312,14 +1269,14 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="37"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="8"/>
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
@@ -1329,14 +1286,14 @@
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="8"/>
       <c r="J12" s="7"/>
       <c r="K12" s="6"/>
@@ -1346,14 +1303,14 @@
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="8"/>
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
@@ -1363,14 +1320,14 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="37"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="8"/>
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
@@ -1380,14 +1337,14 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="38"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="8"/>
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
@@ -1397,14 +1354,14 @@
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="39"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="8"/>
       <c r="J16" s="7"/>
       <c r="K16" s="6"/>
@@ -1414,14 +1371,14 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="46"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="2"/>
@@ -1431,14 +1388,14 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="47"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="70"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
       <c r="K18" s="2"/>
@@ -1448,14 +1405,14 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="48"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
       <c r="K19" s="2"/>
@@ -1465,14 +1422,14 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="46"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
       <c r="K20" s="18"/>
@@ -1482,14 +1439,14 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="47"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
       <c r="K21" s="18"/>
@@ -1499,14 +1456,14 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="48"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -1516,14 +1473,14 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="46"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
       <c r="K23" s="2"/>
@@ -1533,14 +1490,14 @@
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="47"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="70"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
       <c r="K24" s="2"/>
@@ -1550,14 +1507,14 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="48"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
       <c r="K25" s="2"/>
@@ -1567,14 +1524,14 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="46"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="70"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
       <c r="K26" s="2"/>
@@ -1584,14 +1541,14 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="47"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
       <c r="K27" s="2"/>
@@ -1601,14 +1558,14 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="48"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="70"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
       <c r="K28" s="2"/>
@@ -1618,14 +1575,14 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="46"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
       <c r="K29" s="2"/>
@@ -1635,14 +1592,14 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="47"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="70"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
       <c r="K30" s="18"/>
@@ -1652,14 +1609,14 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="48"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="70"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
       <c r="K31" s="2"/>
@@ -1669,14 +1626,14 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="46"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="70"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
       <c r="K32" s="18"/>
@@ -1686,14 +1643,14 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="47"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="70"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
       <c r="K33" s="18"/>
@@ -1703,14 +1660,14 @@
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="48"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="70"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
       <c r="K34" s="18"/>
@@ -1720,14 +1677,14 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="46"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="70"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
       <c r="K35" s="18"/>
@@ -1737,14 +1694,14 @@
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="47"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="70"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
       <c r="K36" s="18"/>
@@ -1754,14 +1711,14 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="48"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="70"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
       <c r="K37" s="18"/>
@@ -1771,14 +1728,14 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="46"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="70"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
       <c r="K38" s="18"/>
@@ -1788,14 +1745,14 @@
       <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="47"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="70"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
       <c r="K39" s="18"/>
@@ -1805,14 +1762,14 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="48"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="70"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
       <c r="K40" s="18"/>
@@ -1822,14 +1779,14 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="46"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="70"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
       <c r="K41" s="18"/>
@@ -1839,14 +1796,14 @@
       <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="40"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="47"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="70"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
       <c r="K42" s="18"/>
@@ -1856,14 +1813,14 @@
       <c r="O42" s="9"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="40"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="48"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="70"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
       <c r="K43" s="18"/>
@@ -1873,14 +1830,14 @@
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="46"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="70"/>
       <c r="I44" s="8"/>
       <c r="J44" s="7"/>
       <c r="K44" s="6"/>
@@ -1890,14 +1847,14 @@
       <c r="O44" s="9"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="40"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="47"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="70"/>
       <c r="I45" s="8"/>
       <c r="J45" s="7"/>
       <c r="K45" s="6"/>
@@ -1907,14 +1864,14 @@
       <c r="O45" s="9"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="40"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="48"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="70"/>
       <c r="I46" s="8"/>
       <c r="J46" s="7"/>
       <c r="K46" s="6"/>
@@ -1924,14 +1881,14 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="46"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="70"/>
       <c r="I47" s="8"/>
       <c r="J47" s="7"/>
       <c r="K47" s="18"/>
@@ -1941,14 +1898,14 @@
       <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="40"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="47"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="70"/>
       <c r="I48" s="8"/>
       <c r="J48" s="7"/>
       <c r="K48" s="18"/>
@@ -1958,14 +1915,14 @@
       <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="40"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="48"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="70"/>
       <c r="I49" s="8"/>
       <c r="J49" s="7"/>
       <c r="K49" s="18"/>
@@ -1975,14 +1932,14 @@
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="46"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="70"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
       <c r="K50" s="2"/>
@@ -1992,14 +1949,14 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="40"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="47"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="70"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
       <c r="K51" s="18"/>
@@ -2009,14 +1966,14 @@
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="40"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="48"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="70"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
       <c r="K52" s="2"/>
@@ -2026,14 +1983,14 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="40"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="46"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="70"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
       <c r="K53" s="2"/>
@@ -2043,14 +2000,14 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="40"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="47"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="70"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
       <c r="K54" s="2"/>
@@ -2060,14 +2017,14 @@
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="40"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="48"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="70"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
       <c r="K55" s="2"/>
@@ -2077,14 +2034,14 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="40"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="37"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="69"/>
       <c r="I56" s="8"/>
       <c r="J56" s="7"/>
       <c r="K56" s="6"/>
@@ -2094,14 +2051,14 @@
       <c r="O56" s="9"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="40"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="38"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="69"/>
       <c r="I57" s="8"/>
       <c r="J57" s="7"/>
       <c r="K57" s="6"/>
@@ -2111,14 +2068,14 @@
       <c r="O57" s="9"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="40"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="39"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="69"/>
       <c r="I58" s="8"/>
       <c r="J58" s="7"/>
       <c r="K58" s="6"/>
@@ -2128,14 +2085,14 @@
       <c r="O58" s="4"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="40"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="37"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="69"/>
       <c r="I59" s="8"/>
       <c r="J59" s="7"/>
       <c r="K59" s="18"/>
@@ -2145,14 +2102,14 @@
       <c r="O59" s="9"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="40"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="38"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="69"/>
       <c r="I60" s="8"/>
       <c r="J60" s="7"/>
       <c r="K60" s="18"/>
@@ -2162,14 +2119,14 @@
       <c r="O60" s="9"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="40"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="39"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="69"/>
       <c r="I61" s="8"/>
       <c r="J61" s="7"/>
       <c r="K61" s="18"/>
@@ -2179,14 +2136,14 @@
       <c r="O61" s="4"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="40"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="37"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="69"/>
       <c r="I62" s="8"/>
       <c r="J62" s="7"/>
       <c r="K62" s="18"/>
@@ -2196,14 +2153,14 @@
       <c r="O62" s="9"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="40"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="38"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="69"/>
       <c r="I63" s="8"/>
       <c r="J63" s="7"/>
       <c r="K63" s="18"/>
@@ -2213,14 +2170,14 @@
       <c r="O63" s="9"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="40"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="39"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="69"/>
       <c r="I64" s="8"/>
       <c r="J64" s="7"/>
       <c r="K64" s="18"/>
@@ -2230,14 +2187,14 @@
       <c r="O64" s="4"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="37"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="69"/>
       <c r="I65" s="8"/>
       <c r="J65" s="7"/>
       <c r="K65" s="18"/>
@@ -2247,14 +2204,14 @@
       <c r="O65" s="9"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="40"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="38"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="69"/>
       <c r="I66" s="8"/>
       <c r="J66" s="7"/>
       <c r="K66" s="18"/>
@@ -2264,14 +2221,14 @@
       <c r="O66" s="9"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="40"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="39"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="69"/>
       <c r="I67" s="8"/>
       <c r="J67" s="7"/>
       <c r="K67" s="18"/>
@@ -2281,14 +2238,14 @@
       <c r="O67" s="4"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="40"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="37"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="69"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
       <c r="K68" s="18"/>
@@ -2298,14 +2255,14 @@
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="40"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="38"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="69"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
       <c r="K69" s="18"/>
@@ -2315,14 +2272,14 @@
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="40"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="39"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="69"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
       <c r="K70" s="18"/>
@@ -2332,14 +2289,14 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="40"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="37"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="69"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
       <c r="K71" s="18"/>
@@ -2349,14 +2306,14 @@
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="40"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="38"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="69"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
       <c r="K72" s="18"/>
@@ -2366,14 +2323,14 @@
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="40"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="39"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="69"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
       <c r="K73" s="18"/>
@@ -2383,14 +2340,14 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="40"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="37"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="69"/>
       <c r="I74" s="8"/>
       <c r="J74" s="7"/>
       <c r="K74" s="18"/>
@@ -2400,14 +2357,14 @@
       <c r="O74" s="9"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="40"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="38"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="69"/>
       <c r="I75" s="8"/>
       <c r="J75" s="7"/>
       <c r="K75" s="18"/>
@@ -2417,14 +2374,14 @@
       <c r="O75" s="9"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="40"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="39"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="69"/>
       <c r="I76" s="8"/>
       <c r="J76" s="7"/>
       <c r="K76" s="18"/>
@@ -2434,14 +2391,14 @@
       <c r="O76" s="4"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="40"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="37"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="69"/>
       <c r="I77" s="8"/>
       <c r="J77" s="7"/>
       <c r="K77" s="18"/>
@@ -2451,14 +2408,14 @@
       <c r="O77" s="9"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="40"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="38"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="69"/>
       <c r="I78" s="8"/>
       <c r="J78" s="7"/>
       <c r="K78" s="18"/>
@@ -2468,14 +2425,14 @@
       <c r="O78" s="9"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="40"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="39"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="69"/>
       <c r="I79" s="8"/>
       <c r="J79" s="7"/>
       <c r="K79" s="18"/>
@@ -2485,14 +2442,14 @@
       <c r="O79" s="4"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="40"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="37"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="69"/>
       <c r="I80" s="8"/>
       <c r="J80" s="7"/>
       <c r="K80" s="18"/>
@@ -2502,14 +2459,14 @@
       <c r="O80" s="9"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="40"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="38"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="69"/>
       <c r="I81" s="8"/>
       <c r="J81" s="7"/>
       <c r="K81" s="18"/>
@@ -2519,14 +2476,14 @@
       <c r="O81" s="9"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="40"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="39"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="69"/>
       <c r="I82" s="8"/>
       <c r="J82" s="7"/>
       <c r="K82" s="18"/>
@@ -2536,14 +2493,14 @@
       <c r="O82" s="4"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="40"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="37"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="69"/>
       <c r="I83" s="8"/>
       <c r="J83" s="7"/>
       <c r="K83" s="2"/>
@@ -2553,14 +2510,14 @@
       <c r="O83" s="9"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="40"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="38"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="69"/>
       <c r="I84" s="8"/>
       <c r="J84" s="7"/>
       <c r="K84" s="2"/>
@@ -2570,14 +2527,14 @@
       <c r="O84" s="9"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85" s="40"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="39"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="69"/>
       <c r="I85" s="8"/>
       <c r="J85" s="7"/>
       <c r="K85" s="2"/>
@@ -2587,14 +2544,14 @@
       <c r="O85" s="4"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="40"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="37"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="69"/>
       <c r="I86" s="8"/>
       <c r="J86" s="7"/>
       <c r="K86" s="18"/>
@@ -2604,14 +2561,14 @@
       <c r="O86" s="9"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="40"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="38"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="69"/>
       <c r="I87" s="8"/>
       <c r="J87" s="7"/>
       <c r="K87" s="18"/>
@@ -2621,14 +2578,14 @@
       <c r="O87" s="9"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="40"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="39"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="69"/>
       <c r="I88" s="8"/>
       <c r="J88" s="7"/>
       <c r="K88" s="18"/>
@@ -2638,14 +2595,14 @@
       <c r="O88" s="4"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="40"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="37"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="69"/>
       <c r="I89" s="8"/>
       <c r="J89" s="7"/>
       <c r="K89" s="18"/>
@@ -2655,14 +2612,14 @@
       <c r="O89" s="9"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="40"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="38"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="69"/>
       <c r="I90" s="8"/>
       <c r="J90" s="7"/>
       <c r="K90" s="18"/>
@@ -2672,14 +2629,14 @@
       <c r="O90" s="9"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="40"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="39"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="69"/>
       <c r="I91" s="8"/>
       <c r="J91" s="7"/>
       <c r="K91" s="18"/>
@@ -2689,14 +2646,14 @@
       <c r="O91" s="4"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A92" s="40"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="37"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="69"/>
       <c r="I92" s="8"/>
       <c r="J92" s="7"/>
       <c r="K92" s="18"/>
@@ -2706,14 +2663,14 @@
       <c r="O92" s="9"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="40"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="38"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="69"/>
       <c r="I93" s="8"/>
       <c r="J93" s="7"/>
       <c r="K93" s="18"/>
@@ -2723,14 +2680,14 @@
       <c r="O93" s="9"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="40"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="39"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="69"/>
       <c r="I94" s="8"/>
       <c r="J94" s="7"/>
       <c r="K94" s="18"/>
@@ -2740,14 +2697,14 @@
       <c r="O94" s="4"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="40"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="37"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="69"/>
       <c r="I95" s="8"/>
       <c r="J95" s="7"/>
       <c r="K95" s="2"/>
@@ -2757,14 +2714,14 @@
       <c r="O95" s="9"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="40"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="38"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="69"/>
       <c r="I96" s="8"/>
       <c r="J96" s="7"/>
       <c r="K96" s="18"/>
@@ -2774,14 +2731,14 @@
       <c r="O96" s="9"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="40"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="39"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="69"/>
       <c r="I97" s="8"/>
       <c r="J97" s="7"/>
       <c r="K97" s="2"/>
@@ -2791,18 +2748,10 @@
       <c r="O97" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="264">
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
+  <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="C3:D3"/>
@@ -2816,246 +2765,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
@@ -3068,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="F4:M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="78.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3096,111 +2805,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
-        <v>34</v>
+      <c r="A1" s="48" t="s">
+        <v>33</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="68" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="I2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="81" t="s">
+      <c r="K2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="L2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="72" t="s">
+      <c r="Q2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="R2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="66" t="s">
+      <c r="S2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="67"/>
+      <c r="T2" s="65"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="67"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
@@ -4098,58 +3807,58 @@
       <c r="M46" s="30"/>
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="63"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4241,6 +3950,20 @@
     <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -4253,20 +3976,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
